--- a/cases/NorthSea/Networks/NetworkDataElectricity_DC.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataElectricity_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A3F8DA-CAEB-4854-AF0E-D049DDECBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3E4F12-7E52-4171-BDB4-100004D81354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkConnection" sheetId="8" r:id="rId1"/>
@@ -485,7 +485,7 @@
             <v>NL_on_Holland_S</v>
           </cell>
           <cell r="B5" t="str">
-            <v>onNL_SW</v>
+            <v>onNL_W</v>
           </cell>
         </row>
         <row r="6">
@@ -681,13 +681,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>onNL_NE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -992,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DD3F9F-5CD5-413C-96B9-1FF4B1CDED4D}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -1500,11 +1494,11 @@
       </c>
       <c r="O5" s="1">
         <f>IF(AND(NetworkConnection_all!O5=1,NetworkLength!O5&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <f>IF(AND(NetworkConnection_all!P5=1,NetworkLength!P5&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
         <f>IF(AND(NetworkConnection_all!Q5=1,NetworkLength!Q5&gt;=80),1,0)</f>
@@ -1548,15 +1542,15 @@
       </c>
       <c r="AA5" s="1">
         <f>IF(AND(NetworkConnection_all!AA5=1,NetworkLength!AA5&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
         <f>IF(AND(NetworkConnection_all!AB5=1,NetworkLength!AB5&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <f>IF(AND(NetworkConnection_all!AC5=1,NetworkLength!AC5&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2630,7 +2624,7 @@
       </c>
       <c r="E15" s="1">
         <f>IF(AND(NetworkConnection_all!E15=1,NetworkLength!E15&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <f>IF(AND(NetworkConnection_all!F15=1,NetworkLength!F15&gt;=80),1,0)</f>
@@ -2747,7 +2741,7 @@
       </c>
       <c r="E16" s="1">
         <f>IF(AND(NetworkConnection_all!E16=1,NetworkLength!E16&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <f>IF(AND(NetworkConnection_all!F16=1,NetworkLength!F16&gt;=80),1,0)</f>
@@ -4034,7 +4028,7 @@
       </c>
       <c r="E27" s="1">
         <f>IF(AND(NetworkConnection_all!E27=1,NetworkLength!E27&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <f>IF(AND(NetworkConnection_all!F27=1,NetworkLength!F27&gt;=80),1,0)</f>
@@ -4151,7 +4145,7 @@
       </c>
       <c r="E28" s="1">
         <f>IF(AND(NetworkConnection_all!E28=1,NetworkLength!E28&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <f>IF(AND(NetworkConnection_all!F28=1,NetworkLength!F28&gt;=80),1,0)</f>
@@ -4268,7 +4262,7 @@
       </c>
       <c r="E29" s="1">
         <f>IF(AND(NetworkConnection_all!E29=1,NetworkLength!E29&gt;=80),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <f>IF(AND(NetworkConnection_all!F29=1,NetworkLength!F29&gt;=80),1,0)</f>
@@ -7507,11 +7501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19037A9-823E-43DC-977F-676C2E51B637}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7628,7 +7622,7 @@
       </c>
       <c r="E2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>160.215717690189</v>
       </c>
       <c r="F2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7745,7 +7739,7 @@
       </c>
       <c r="E3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>122.233015251859</v>
       </c>
       <c r="F3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7862,7 +7856,7 @@
       </c>
       <c r="E4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>73.098190833047397</v>
       </c>
       <c r="F4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7967,15 +7961,15 @@
       </c>
       <c r="B5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;B$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>160.215717690189</v>
       </c>
       <c r="C5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;C$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>122.23301525186</v>
       </c>
       <c r="D5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;D$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>73.098190833047212</v>
       </c>
       <c r="E5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -7983,99 +7977,99 @@
       </c>
       <c r="F5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>68.354024510095513</v>
       </c>
       <c r="G5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>83.093200778342506</v>
       </c>
       <c r="H5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>46.910149427661402</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;I$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.65552976572999</v>
       </c>
       <c r="J5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;J$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>150.147779690883</v>
       </c>
       <c r="K5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;K$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>407.114647437315</v>
       </c>
       <c r="L5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;L$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>551.71631086470302</v>
       </c>
       <c r="M5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;M$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>959.02504167433392</v>
       </c>
       <c r="N5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;N$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>556.130636818217</v>
       </c>
       <c r="O5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;O$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>123.609996781029</v>
       </c>
       <c r="P5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;P$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>127.816754983997</v>
       </c>
       <c r="Q5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Q$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>117.490074404659</v>
       </c>
       <c r="R5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;R$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>124.576180972134</v>
       </c>
       <c r="S5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;S$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>71.264063469820798</v>
       </c>
       <c r="T5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;T$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>74.10717060114159</v>
       </c>
       <c r="U5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;U$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>59.062457639507599</v>
       </c>
       <c r="V5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;V$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>241.071005421938</v>
       </c>
       <c r="W5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;W$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>245.15186942224801</v>
       </c>
       <c r="X5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;X$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>53.326987538476402</v>
       </c>
       <c r="Y5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Y$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>60.596188522896895</v>
       </c>
       <c r="Z5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Z$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>85.584997692026306</v>
       </c>
       <c r="AA5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AA$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.47154062254799</v>
       </c>
       <c r="AB5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AB$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>98.835658944315696</v>
       </c>
       <c r="AC5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AC$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>133.60579280435599</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -8096,7 +8090,7 @@
       </c>
       <c r="E6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>68.354024510095897</v>
       </c>
       <c r="F6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8213,7 +8207,7 @@
       </c>
       <c r="E7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>83.093200778342691</v>
       </c>
       <c r="F7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8221,7 +8215,7 @@
       </c>
       <c r="G7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8330,7 +8324,7 @@
       </c>
       <c r="E8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>46.910149427661196</v>
       </c>
       <c r="F8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8447,7 +8441,7 @@
       </c>
       <c r="E9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.65552976572999</v>
       </c>
       <c r="F9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8564,7 +8558,7 @@
       </c>
       <c r="E10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>150.14777969088198</v>
       </c>
       <c r="F10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8681,7 +8675,7 @@
       </c>
       <c r="E11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>407.114647437315</v>
       </c>
       <c r="F11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8798,7 +8792,7 @@
       </c>
       <c r="E12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>551.71631086470302</v>
       </c>
       <c r="F12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -8915,7 +8909,7 @@
       </c>
       <c r="E13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>959.02504167433392</v>
       </c>
       <c r="F13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9032,7 +9026,7 @@
       </c>
       <c r="E14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>556.130636818217</v>
       </c>
       <c r="F14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9149,7 +9143,7 @@
       </c>
       <c r="E15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>123.609996781029</v>
       </c>
       <c r="F15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9266,7 +9260,7 @@
       </c>
       <c r="E16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>127.816754983997</v>
       </c>
       <c r="F16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9383,7 +9377,7 @@
       </c>
       <c r="E17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>117.490074404659</v>
       </c>
       <c r="F17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9500,7 +9494,7 @@
       </c>
       <c r="E18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>124.576180972134</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9617,7 +9611,7 @@
       </c>
       <c r="E19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>71.264063469820599</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9734,7 +9728,7 @@
       </c>
       <c r="E20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>74.107170601141206</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9851,7 +9845,7 @@
       </c>
       <c r="E21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>59.062457639507798</v>
       </c>
       <c r="F21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -9968,7 +9962,7 @@
       </c>
       <c r="E22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>241.071005421938</v>
       </c>
       <c r="F22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10085,7 +10079,7 @@
       </c>
       <c r="E23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>245.15186942224801</v>
       </c>
       <c r="F23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10202,7 +10196,7 @@
       </c>
       <c r="E24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>53.326987538476494</v>
       </c>
       <c r="F24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10319,7 +10313,7 @@
       </c>
       <c r="E25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>60.596188522896803</v>
       </c>
       <c r="F25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10436,7 +10430,7 @@
       </c>
       <c r="E26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>85.584997692026604</v>
       </c>
       <c r="F26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10553,7 +10547,7 @@
       </c>
       <c r="E27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.47154062254799</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10670,7 +10664,7 @@
       </c>
       <c r="E28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>98.835658944315398</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -10787,7 +10781,7 @@
       </c>
       <c r="E29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>133.60579280435599</v>
       </c>
       <c r="F29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -12182,14 +12176,14 @@
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(K19,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C19">
         <v>117490.074404659</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-onNL_SW</v>
+        <v>ofNL_BO_A-onNL_W</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -13181,14 +13175,14 @@
       </c>
       <c r="B53" t="str">
         <f>_xlfn.XLOOKUP(K53,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C53">
         <v>53326.987538476496</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-onNL_SW</v>
+        <v>ofNL_KZ_B-onNL_W</v>
       </c>
       <c r="J53" t="s">
         <v>22</v>
@@ -14180,14 +14174,14 @@
       </c>
       <c r="B87" t="str">
         <f>_xlfn.XLOOKUP(K87,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C87">
         <v>123609.996781029</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-onNL_SW</v>
+        <v>ofNL_IJ_B-onNL_W</v>
       </c>
       <c r="J87" t="s">
         <v>13</v>
@@ -15179,14 +15173,14 @@
       </c>
       <c r="B121" t="str">
         <f>_xlfn.XLOOKUP(K121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C121">
         <v>60596.188522896802</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
-        <v>ofNL_KZ_A-onNL_SW</v>
+        <v>ofNL_KZ_A-onNL_W</v>
       </c>
       <c r="J121" t="s">
         <v>23</v>
@@ -16178,14 +16172,14 @@
       </c>
       <c r="B155" t="str">
         <f>_xlfn.XLOOKUP(K155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C155">
         <v>127816.754983997</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-onNL_SW</v>
+        <v>ofNL_IJ_A-onNL_W</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -17177,14 +17171,14 @@
       </c>
       <c r="B189" t="str">
         <f>_xlfn.XLOOKUP(K189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C189">
         <v>124576.180972134</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="4"/>
-        <v>ofNL_BO_B-onNL_SW</v>
+        <v>ofNL_BO_B-onNL_W</v>
       </c>
       <c r="J189" t="s">
         <v>16</v>
@@ -17475,16 +17469,16 @@
         <f>_xlfn.XLOOKUP(J199,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_BO_B</v>
       </c>
-      <c r="B199" t="e">
+      <c r="B199">
         <f>_xlfn.XLOOKUP(K199,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C199">
         <v>190757.11732034801</v>
       </c>
-      <c r="D199" t="e">
+      <c r="D199" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_BO_B-0</v>
       </c>
       <c r="J199" t="s">
         <v>16</v>
@@ -18176,14 +18170,14 @@
       </c>
       <c r="B223" t="str">
         <f>_xlfn.XLOOKUP(K223,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C223">
         <v>133605.792804356</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-onNL_SW</v>
+        <v>ofNL_IJ_G-onNL_W</v>
       </c>
       <c r="J223" t="s">
         <v>28</v>
@@ -18528,16 +18522,16 @@
         <f>_xlfn.XLOOKUP(J235,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B235" t="e">
+      <c r="B235">
         <f>_xlfn.XLOOKUP(K235,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C235">
         <v>37198.402448161098</v>
       </c>
-      <c r="D235" t="e">
+      <c r="D235" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J235" t="s">
         <v>28</v>
@@ -18636,16 +18630,16 @@
         <f>_xlfn.XLOOKUP(J239,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_IJ_G</v>
       </c>
-      <c r="B239" t="e">
+      <c r="B239">
         <f>_xlfn.XLOOKUP(K239,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C239">
         <v>168445.84144773401</v>
       </c>
-      <c r="D239" t="e">
+      <c r="D239" t="str">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>ofNL_IJ_G-0</v>
       </c>
       <c r="J239" t="s">
         <v>28</v>
@@ -19175,14 +19169,14 @@
       </c>
       <c r="B257" t="str">
         <f>_xlfn.XLOOKUP(K257,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C257">
         <v>83093.200778342696</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="6"/>
-        <v>onNL_SW-onNL_SW</v>
+        <v>onNL_SW-onNL_W</v>
       </c>
       <c r="J257" t="s">
         <v>0</v>
@@ -19581,16 +19575,16 @@
         <f>_xlfn.XLOOKUP(J271,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SW</v>
       </c>
-      <c r="B271" t="e">
+      <c r="B271">
         <f>_xlfn.XLOOKUP(K271,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C271">
         <v>177531.59650810101</v>
       </c>
-      <c r="D271" t="e">
+      <c r="D271" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_SW-0</v>
       </c>
       <c r="J271" t="s">
         <v>0</v>
@@ -20174,14 +20168,14 @@
       </c>
       <c r="B291" t="str">
         <f>_xlfn.XLOOKUP(K291,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C291">
         <v>68354.0245100959</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v>onNL_CE-onNL_SW</v>
+        <v>onNL_CE-onNL_W</v>
       </c>
       <c r="J291" t="s">
         <v>1</v>
@@ -20526,16 +20520,16 @@
         <f>_xlfn.XLOOKUP(J303,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B303" t="e">
+      <c r="B303">
         <f>_xlfn.XLOOKUP(K303,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C303">
         <v>229079.75379608499</v>
       </c>
-      <c r="D303" t="e">
+      <c r="D303" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J303" t="s">
         <v>1</v>
@@ -20634,16 +20628,16 @@
         <f>_xlfn.XLOOKUP(J307,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CE</v>
       </c>
-      <c r="B307" t="e">
+      <c r="B307">
         <f>_xlfn.XLOOKUP(K307,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C307">
         <v>274729.48396645801</v>
       </c>
-      <c r="D307" t="e">
+      <c r="D307" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v>onNL_CE-0</v>
       </c>
       <c r="J307" t="s">
         <v>1</v>
@@ -21173,14 +21167,14 @@
       </c>
       <c r="B325" t="str">
         <f>_xlfn.XLOOKUP(K325,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C325">
         <v>150147.77969088199</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
-        <v>onBE-onNL_SW</v>
+        <v>onBE-onNL_W</v>
       </c>
       <c r="J325" t="s">
         <v>2</v>
@@ -21471,16 +21465,16 @@
         <f>_xlfn.XLOOKUP(J335,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B335" t="e">
+      <c r="B335">
         <f>_xlfn.XLOOKUP(K335,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C335">
         <v>323061.25950316002</v>
       </c>
-      <c r="D335" t="e">
+      <c r="D335" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J335" t="s">
         <v>2</v>
@@ -21579,16 +21573,16 @@
         <f>_xlfn.XLOOKUP(J339,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onBE</v>
       </c>
-      <c r="B339" t="e">
+      <c r="B339">
         <f>_xlfn.XLOOKUP(K339,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C339">
         <v>273378.81599162298</v>
       </c>
-      <c r="D339" t="e">
+      <c r="D339" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onBE-0</v>
       </c>
       <c r="J339" t="s">
         <v>2</v>
@@ -22172,14 +22166,14 @@
       </c>
       <c r="B359" t="str">
         <f>_xlfn.XLOOKUP(K359,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C359">
         <v>407114.64743731503</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v>onDE-onNL_SW</v>
+        <v>onDE-onNL_W</v>
       </c>
       <c r="J359" t="s">
         <v>3</v>
@@ -22632,16 +22626,16 @@
         <f>_xlfn.XLOOKUP(J375,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDE</v>
       </c>
-      <c r="B375" t="e">
+      <c r="B375">
         <f>_xlfn.XLOOKUP(K375,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C375">
         <v>460380.24266793602</v>
       </c>
-      <c r="D375" t="e">
+      <c r="D375" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>onDE-0</v>
       </c>
       <c r="J375" t="s">
         <v>3</v>
@@ -23171,14 +23165,14 @@
       </c>
       <c r="B393" t="str">
         <f>_xlfn.XLOOKUP(K393,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C393">
         <v>551716.31086470303</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v>onUK-onNL_SW</v>
+        <v>onUK-onNL_W</v>
       </c>
       <c r="J393" t="s">
         <v>4</v>
@@ -23577,16 +23571,16 @@
         <f>_xlfn.XLOOKUP(J407,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onUK</v>
       </c>
-      <c r="B407" t="e">
+      <c r="B407">
         <f>_xlfn.XLOOKUP(K407,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C407">
         <v>458313.314083039</v>
       </c>
-      <c r="D407" t="e">
+      <c r="D407" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onUK-0</v>
       </c>
       <c r="J407" t="s">
         <v>4</v>
@@ -24170,14 +24164,14 @@
       </c>
       <c r="B427" t="str">
         <f>_xlfn.XLOOKUP(K427,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C427">
         <v>556130.636818217</v>
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v>onDKW-onNL_SW</v>
+        <v>onDKW-onNL_W</v>
       </c>
       <c r="J427" t="s">
         <v>5</v>
@@ -24522,16 +24516,16 @@
         <f>_xlfn.XLOOKUP(J439,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B439" t="e">
+      <c r="B439">
         <f>_xlfn.XLOOKUP(K439,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C439">
         <v>527832.80258658703</v>
       </c>
-      <c r="D439" t="e">
+      <c r="D439" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J439" t="s">
         <v>5</v>
@@ -24630,16 +24624,16 @@
         <f>_xlfn.XLOOKUP(J443,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onDKW</v>
       </c>
-      <c r="B443" t="e">
+      <c r="B443">
         <f>_xlfn.XLOOKUP(K443,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C443">
         <v>338735.75530750002</v>
       </c>
-      <c r="D443" t="e">
+      <c r="D443" t="str">
         <f t="shared" si="12"/>
-        <v>#N/A</v>
+        <v>onDKW-0</v>
       </c>
       <c r="J443" t="s">
         <v>5</v>
@@ -25169,14 +25163,14 @@
       </c>
       <c r="B461" t="str">
         <f>_xlfn.XLOOKUP(K461,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C461">
         <v>101655.52976573</v>
       </c>
       <c r="D461" t="str">
         <f t="shared" si="14"/>
-        <v>onNL_E-onNL_SW</v>
+        <v>onNL_E-onNL_W</v>
       </c>
       <c r="J461" t="s">
         <v>6</v>
@@ -25467,16 +25461,16 @@
         <f>_xlfn.XLOOKUP(J471,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B471" t="e">
+      <c r="B471">
         <f>_xlfn.XLOOKUP(K471,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C471">
         <v>235269.70260184401</v>
       </c>
-      <c r="D471" t="e">
+      <c r="D471" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J471" t="s">
         <v>6</v>
@@ -25575,16 +25569,16 @@
         <f>_xlfn.XLOOKUP(J475,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_E</v>
       </c>
-      <c r="B475" t="e">
+      <c r="B475">
         <f>_xlfn.XLOOKUP(K475,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C475">
         <v>176142.07500253999</v>
       </c>
-      <c r="D475" t="e">
+      <c r="D475" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNL_E-0</v>
       </c>
       <c r="J475" t="s">
         <v>6</v>
@@ -26168,14 +26162,14 @@
       </c>
       <c r="B495" t="str">
         <f>_xlfn.XLOOKUP(K495,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C495">
         <v>959025.04167433397</v>
       </c>
       <c r="D495" t="str">
         <f t="shared" si="14"/>
-        <v>onNOS-onNL_SW</v>
+        <v>onNOS-onNL_W</v>
       </c>
       <c r="J495" t="s">
         <v>7</v>
@@ -26520,16 +26514,16 @@
         <f>_xlfn.XLOOKUP(J507,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B507" t="e">
+      <c r="B507">
         <f>_xlfn.XLOOKUP(K507,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C507">
         <v>872343.91255063599</v>
       </c>
-      <c r="D507" t="e">
+      <c r="D507" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J507" t="s">
         <v>7</v>
@@ -26628,16 +26622,16 @@
         <f>_xlfn.XLOOKUP(J511,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNOS</v>
       </c>
-      <c r="B511" t="e">
+      <c r="B511">
         <f>_xlfn.XLOOKUP(K511,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C511">
         <v>724324.03251885704</v>
       </c>
-      <c r="D511" t="e">
+      <c r="D511" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v>onNOS-0</v>
       </c>
       <c r="J511" t="s">
         <v>7</v>
@@ -27167,14 +27161,14 @@
       </c>
       <c r="B529" t="str">
         <f>_xlfn.XLOOKUP(K529,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C529">
         <v>73098.190833047396</v>
       </c>
       <c r="D529" t="str">
         <f t="shared" si="16"/>
-        <v>onNL_NW-onNL_SW</v>
+        <v>onNL_NW-onNL_W</v>
       </c>
       <c r="J529" t="s">
         <v>8</v>
@@ -27465,16 +27459,16 @@
         <f>_xlfn.XLOOKUP(J539,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B539" t="e">
+      <c r="B539">
         <f>_xlfn.XLOOKUP(K539,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C539">
         <v>157710.828956179</v>
       </c>
-      <c r="D539" t="e">
+      <c r="D539" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J539" t="s">
         <v>8</v>
@@ -27573,16 +27567,16 @@
         <f>_xlfn.XLOOKUP(J543,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NW</v>
       </c>
-      <c r="B543" t="e">
+      <c r="B543">
         <f>_xlfn.XLOOKUP(K543,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C543">
         <v>98374.122295964102</v>
       </c>
-      <c r="D543" t="e">
+      <c r="D543" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NW-0</v>
       </c>
       <c r="J543" t="s">
         <v>8</v>
@@ -28166,14 +28160,14 @@
       </c>
       <c r="B563" t="str">
         <f>_xlfn.XLOOKUP(K563,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C563">
         <v>160215.71769018899</v>
       </c>
       <c r="D563" t="str">
         <f t="shared" si="16"/>
-        <v>onNL_NE-onNL_SW</v>
+        <v>onNL_NE-onNL_W</v>
       </c>
       <c r="J563" t="s">
         <v>9</v>
@@ -28518,16 +28512,16 @@
         <f>_xlfn.XLOOKUP(J575,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B575" t="e">
+      <c r="B575">
         <f>_xlfn.XLOOKUP(K575,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C575">
         <v>208570.39962675999</v>
       </c>
-      <c r="D575" t="e">
+      <c r="D575" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J575" t="s">
         <v>9</v>
@@ -28626,16 +28620,16 @@
         <f>_xlfn.XLOOKUP(J579,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_NE</v>
       </c>
-      <c r="B579" t="e">
+      <c r="B579">
         <f>_xlfn.XLOOKUP(K579,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C579">
         <v>115873.821706517</v>
       </c>
-      <c r="D579" t="e">
+      <c r="D579" t="str">
         <f t="shared" ref="D579:D642" si="18">A579&amp;"-"&amp;B579</f>
-        <v>#N/A</v>
+        <v>onNL_NE-0</v>
       </c>
       <c r="J579" t="s">
         <v>9</v>
@@ -29165,14 +29159,14 @@
       </c>
       <c r="B597" t="str">
         <f>_xlfn.XLOOKUP(K597,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C597">
         <v>46910.149427661199</v>
       </c>
       <c r="D597" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_CW-onNL_SW</v>
+        <v>onNL_CW-onNL_W</v>
       </c>
       <c r="J597" t="s">
         <v>10</v>
@@ -29463,16 +29457,16 @@
         <f>_xlfn.XLOOKUP(J607,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B607" t="e">
+      <c r="B607">
         <f>_xlfn.XLOOKUP(K607,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C607">
         <v>221946.17291121901</v>
       </c>
-      <c r="D607" t="e">
+      <c r="D607" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J607" t="s">
         <v>10</v>
@@ -29571,16 +29565,16 @@
         <f>_xlfn.XLOOKUP(J611,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_CW</v>
       </c>
-      <c r="B611" t="e">
+      <c r="B611">
         <f>_xlfn.XLOOKUP(K611,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C611">
         <v>169592.34658264401</v>
       </c>
-      <c r="D611" t="e">
+      <c r="D611" t="str">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>onNL_CW-0</v>
       </c>
       <c r="J611" t="s">
         <v>10</v>
@@ -29650,7 +29644,7 @@
     <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f>_xlfn.XLOOKUP(J614,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B614" t="str">
         <f>_xlfn.XLOOKUP(K614,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29661,7 +29655,7 @@
       </c>
       <c r="D614" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_BO_A</v>
+        <v>onNL_W-ofNL_BO_A</v>
       </c>
       <c r="J614" t="s">
         <v>11</v>
@@ -29680,7 +29674,7 @@
     <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="str">
         <f>_xlfn.XLOOKUP(J615,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B615" t="str">
         <f>_xlfn.XLOOKUP(K615,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29691,7 +29685,7 @@
       </c>
       <c r="D615" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KZ_B</v>
+        <v>onNL_W-ofNL_KZ_B</v>
       </c>
       <c r="J615" t="s">
         <v>11</v>
@@ -29710,7 +29704,7 @@
     <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="str">
         <f>_xlfn.XLOOKUP(J616,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B616" t="str">
         <f>_xlfn.XLOOKUP(K616,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29721,7 +29715,7 @@
       </c>
       <c r="D616" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_B</v>
+        <v>onNL_W-ofNL_IJ_B</v>
       </c>
       <c r="J616" t="s">
         <v>11</v>
@@ -29740,7 +29734,7 @@
     <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="str">
         <f>_xlfn.XLOOKUP(J617,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B617" t="str">
         <f>_xlfn.XLOOKUP(K617,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29751,7 +29745,7 @@
       </c>
       <c r="D617" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KZ_A</v>
+        <v>onNL_W-ofNL_KZ_A</v>
       </c>
       <c r="J617" t="s">
         <v>11</v>
@@ -29770,7 +29764,7 @@
     <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="str">
         <f>_xlfn.XLOOKUP(J618,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B618" t="str">
         <f>_xlfn.XLOOKUP(K618,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29781,7 +29775,7 @@
       </c>
       <c r="D618" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_A</v>
+        <v>onNL_W-ofNL_IJ_A</v>
       </c>
       <c r="J618" t="s">
         <v>11</v>
@@ -29800,7 +29794,7 @@
     <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="str">
         <f>_xlfn.XLOOKUP(J619,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B619" t="str">
         <f>_xlfn.XLOOKUP(K619,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29811,7 +29805,7 @@
       </c>
       <c r="D619" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_BO_B</v>
+        <v>onNL_W-ofNL_BO_B</v>
       </c>
       <c r="J619" t="s">
         <v>11</v>
@@ -29830,7 +29824,7 @@
     <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="str">
         <f>_xlfn.XLOOKUP(J620,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B620" t="str">
         <f>_xlfn.XLOOKUP(K620,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29841,7 +29835,7 @@
       </c>
       <c r="D620" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_G</v>
+        <v>onNL_W-ofNL_IJ_G</v>
       </c>
       <c r="J620" t="s">
         <v>11</v>
@@ -29860,7 +29854,7 @@
     <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" t="str">
         <f>_xlfn.XLOOKUP(J621,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B621" t="str">
         <f>_xlfn.XLOOKUP(K621,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29871,7 +29865,7 @@
       </c>
       <c r="D621" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_SW</v>
+        <v>onNL_W-onNL_SW</v>
       </c>
       <c r="J621" t="s">
         <v>11</v>
@@ -29890,7 +29884,7 @@
     <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" t="str">
         <f>_xlfn.XLOOKUP(J622,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B622" t="str">
         <f>_xlfn.XLOOKUP(K622,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29901,7 +29895,7 @@
       </c>
       <c r="D622" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_CE</v>
+        <v>onNL_W-onNL_CE</v>
       </c>
       <c r="J622" t="s">
         <v>11</v>
@@ -29920,7 +29914,7 @@
     <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="str">
         <f>_xlfn.XLOOKUP(J623,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B623" t="str">
         <f>_xlfn.XLOOKUP(K623,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29931,7 +29925,7 @@
       </c>
       <c r="D623" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onBE</v>
+        <v>onNL_W-onBE</v>
       </c>
       <c r="J623" t="s">
         <v>11</v>
@@ -29950,7 +29944,7 @@
     <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="str">
         <f>_xlfn.XLOOKUP(J624,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B624" t="str">
         <f>_xlfn.XLOOKUP(K624,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29961,7 +29955,7 @@
       </c>
       <c r="D624" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onDE</v>
+        <v>onNL_W-onDE</v>
       </c>
       <c r="J624" t="s">
         <v>11</v>
@@ -29980,7 +29974,7 @@
     <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="str">
         <f>_xlfn.XLOOKUP(J625,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B625" t="str">
         <f>_xlfn.XLOOKUP(K625,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -29991,7 +29985,7 @@
       </c>
       <c r="D625" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onUK</v>
+        <v>onNL_W-onUK</v>
       </c>
       <c r="J625" t="s">
         <v>11</v>
@@ -30010,7 +30004,7 @@
     <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="str">
         <f>_xlfn.XLOOKUP(J626,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B626" t="str">
         <f>_xlfn.XLOOKUP(K626,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30021,7 +30015,7 @@
       </c>
       <c r="D626" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onDKW</v>
+        <v>onNL_W-onDKW</v>
       </c>
       <c r="J626" t="s">
         <v>11</v>
@@ -30040,7 +30034,7 @@
     <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="str">
         <f>_xlfn.XLOOKUP(J627,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B627" t="str">
         <f>_xlfn.XLOOKUP(K627,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30051,7 +30045,7 @@
       </c>
       <c r="D627" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_E</v>
+        <v>onNL_W-onNL_E</v>
       </c>
       <c r="J627" t="s">
         <v>11</v>
@@ -30070,7 +30064,7 @@
     <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="str">
         <f>_xlfn.XLOOKUP(J628,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B628" t="str">
         <f>_xlfn.XLOOKUP(K628,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30081,7 +30075,7 @@
       </c>
       <c r="D628" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNOS</v>
+        <v>onNL_W-onNOS</v>
       </c>
       <c r="J628" t="s">
         <v>11</v>
@@ -30100,7 +30094,7 @@
     <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="str">
         <f>_xlfn.XLOOKUP(J629,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B629" t="str">
         <f>_xlfn.XLOOKUP(K629,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30111,7 +30105,7 @@
       </c>
       <c r="D629" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_NW</v>
+        <v>onNL_W-onNL_NW</v>
       </c>
       <c r="J629" t="s">
         <v>11</v>
@@ -30130,7 +30124,7 @@
     <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="str">
         <f>_xlfn.XLOOKUP(J630,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B630" t="str">
         <f>_xlfn.XLOOKUP(K630,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30141,7 +30135,7 @@
       </c>
       <c r="D630" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_NE</v>
+        <v>onNL_W-onNL_NE</v>
       </c>
       <c r="J630" t="s">
         <v>11</v>
@@ -30160,7 +30154,7 @@
     <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="str">
         <f>_xlfn.XLOOKUP(J631,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B631" t="str">
         <f>_xlfn.XLOOKUP(K631,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30171,7 +30165,7 @@
       </c>
       <c r="D631" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_CW</v>
+        <v>onNL_W-onNL_CW</v>
       </c>
       <c r="J631" t="s">
         <v>11</v>
@@ -30190,7 +30184,7 @@
     <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="str">
         <f>_xlfn.XLOOKUP(J632,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B632" t="str">
         <f>_xlfn.XLOOKUP(K632,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30201,7 +30195,7 @@
       </c>
       <c r="D632" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_SE</v>
+        <v>onNL_W-onNL_SE</v>
       </c>
       <c r="J632" t="s">
         <v>11</v>
@@ -30220,7 +30214,7 @@
     <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="str">
         <f>_xlfn.XLOOKUP(J633,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B633" t="str">
         <f>_xlfn.XLOOKUP(K633,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30231,7 +30225,7 @@
       </c>
       <c r="D633" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_EG</v>
+        <v>onNL_W-ofNL_EG</v>
       </c>
       <c r="J633" t="s">
         <v>11</v>
@@ -30250,7 +30244,7 @@
     <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="str">
         <f>_xlfn.XLOOKUP(J634,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B634" t="str">
         <f>_xlfn.XLOOKUP(K634,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30261,7 +30255,7 @@
       </c>
       <c r="D634" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_PA</v>
+        <v>onNL_W-ofNL_PA</v>
       </c>
       <c r="J634" t="s">
         <v>11</v>
@@ -30280,7 +30274,7 @@
     <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="str">
         <f>_xlfn.XLOOKUP(J635,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B635" t="str">
         <f>_xlfn.XLOOKUP(K635,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30291,7 +30285,7 @@
       </c>
       <c r="D635" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_LU</v>
+        <v>onNL_W-ofNL_LU</v>
       </c>
       <c r="J635" t="s">
         <v>11</v>
@@ -30310,7 +30304,7 @@
     <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="str">
         <f>_xlfn.XLOOKUP(J636,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B636" t="str">
         <f>_xlfn.XLOOKUP(K636,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30321,7 +30315,7 @@
       </c>
       <c r="D636" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_GE_B</v>
+        <v>onNL_W-ofNL_GE_B</v>
       </c>
       <c r="J636" t="s">
         <v>11</v>
@@ -30340,7 +30334,7 @@
     <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" t="str">
         <f>_xlfn.XLOOKUP(J637,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B637" t="str">
         <f>_xlfn.XLOOKUP(K637,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30351,7 +30345,7 @@
       </c>
       <c r="D637" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_GE_A</v>
+        <v>onNL_W-ofNL_GE_A</v>
       </c>
       <c r="J637" t="s">
         <v>11</v>
@@ -30370,7 +30364,7 @@
     <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="str">
         <f>_xlfn.XLOOKUP(J638,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B638" t="str">
         <f>_xlfn.XLOOKUP(K638,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30381,7 +30375,7 @@
       </c>
       <c r="D638" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KN</v>
+        <v>onNL_W-ofNL_KN</v>
       </c>
       <c r="J638" t="s">
         <v>11</v>
@@ -30400,7 +30394,7 @@
     <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="str">
         <f>_xlfn.XLOOKUP(J639,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B639" t="str">
         <f>_xlfn.XLOOKUP(K639,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30411,7 +30405,7 @@
       </c>
       <c r="D639" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KW_A</v>
+        <v>onNL_W-ofNL_KW_A</v>
       </c>
       <c r="J639" t="s">
         <v>11</v>
@@ -30430,7 +30424,7 @@
     <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" t="str">
         <f>_xlfn.XLOOKUP(J640,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B640" t="str">
         <f>_xlfn.XLOOKUP(K640,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30441,7 +30435,7 @@
       </c>
       <c r="D640" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KW_B</v>
+        <v>onNL_W-ofNL_KW_B</v>
       </c>
       <c r="J640" t="s">
         <v>11</v>
@@ -30460,7 +30454,7 @@
     <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" t="str">
         <f>_xlfn.XLOOKUP(J641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B641">
         <f>_xlfn.XLOOKUP(K641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30471,7 +30465,7 @@
       </c>
       <c r="D641" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J641" t="s">
         <v>11</v>
@@ -30487,7 +30481,7 @@
     <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" t="str">
         <f>_xlfn.XLOOKUP(J642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B642">
         <f>_xlfn.XLOOKUP(K642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30498,7 +30492,7 @@
       </c>
       <c r="D642" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J642" t="s">
         <v>11</v>
@@ -30514,18 +30508,18 @@
     <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
         <f>_xlfn.XLOOKUP(J643,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
-      </c>
-      <c r="B643" t="e">
+        <v>onNL_W</v>
+      </c>
+      <c r="B643">
         <f>_xlfn.XLOOKUP(K643,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C643">
         <v>161006.521564044</v>
       </c>
-      <c r="D643" t="e">
+      <c r="D643" t="str">
         <f t="shared" ref="D643:D706" si="20">A643&amp;"-"&amp;B643</f>
-        <v>#N/A</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J643" t="s">
         <v>11</v>
@@ -30541,7 +30535,7 @@
     <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" t="str">
         <f>_xlfn.XLOOKUP(J644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B644">
         <f>_xlfn.XLOOKUP(K644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30552,7 +30546,7 @@
       </c>
       <c r="D644" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J644" t="s">
         <v>11</v>
@@ -30568,7 +30562,7 @@
     <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" t="str">
         <f>_xlfn.XLOOKUP(J645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B645">
         <f>_xlfn.XLOOKUP(K645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30579,7 +30573,7 @@
       </c>
       <c r="D645" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J645" t="s">
         <v>11</v>
@@ -30595,7 +30589,7 @@
     <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" t="str">
         <f>_xlfn.XLOOKUP(J646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B646">
         <f>_xlfn.XLOOKUP(K646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30606,7 +30600,7 @@
       </c>
       <c r="D646" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J646" t="s">
         <v>11</v>
@@ -30622,7 +30616,7 @@
     <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" t="str">
         <f>_xlfn.XLOOKUP(J647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B647">
         <f>_xlfn.XLOOKUP(K647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -30633,7 +30627,7 @@
       </c>
       <c r="D647" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="J647" t="s">
         <v>11</v>
@@ -31193,14 +31187,14 @@
       </c>
       <c r="B666" t="str">
         <f>_xlfn.XLOOKUP(K666,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C666">
         <v>122233.015251859</v>
       </c>
       <c r="D666" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SE-onNL_SW</v>
+        <v>onNL_SE-onNL_W</v>
       </c>
       <c r="J666" t="s">
         <v>12</v>
@@ -31461,16 +31455,16 @@
         <f>_xlfn.XLOOKUP(J675,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B675" t="e">
+      <c r="B675">
         <f>_xlfn.XLOOKUP(K675,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C675">
         <v>305810.16450754198</v>
       </c>
-      <c r="D675" t="e">
+      <c r="D675" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J675" t="s">
         <v>12</v>
@@ -31569,16 +31563,16 @@
         <f>_xlfn.XLOOKUP(J679,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>onNL_SE</v>
       </c>
-      <c r="B679" t="e">
+      <c r="B679">
         <f>_xlfn.XLOOKUP(K679,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C679">
         <v>247322.45724740301</v>
       </c>
-      <c r="D679" t="e">
+      <c r="D679" t="str">
         <f t="shared" si="20"/>
-        <v>#N/A</v>
+        <v>onNL_SE-0</v>
       </c>
       <c r="J679" t="s">
         <v>12</v>
@@ -32192,14 +32186,14 @@
       </c>
       <c r="B700" t="str">
         <f>_xlfn.XLOOKUP(K700,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C700">
         <v>71264.063469820598</v>
       </c>
       <c r="D700" t="str">
         <f t="shared" si="20"/>
-        <v>ofNL_EG-onNL_SW</v>
+        <v>ofNL_EG-onNL_W</v>
       </c>
       <c r="J700" t="s">
         <v>17</v>
@@ -32622,16 +32616,16 @@
         <f>_xlfn.XLOOKUP(J715,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_EG</v>
       </c>
-      <c r="B715" t="e">
+      <c r="B715">
         <f>_xlfn.XLOOKUP(K715,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C715">
         <v>177202.333136756</v>
       </c>
-      <c r="D715" t="e">
+      <c r="D715" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_EG-0</v>
       </c>
       <c r="J715" t="s">
         <v>17</v>
@@ -33191,14 +33185,14 @@
       </c>
       <c r="B734" t="str">
         <f>_xlfn.XLOOKUP(K734,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C734">
         <v>74107.170601141202</v>
       </c>
       <c r="D734" t="str">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-onNL_SW</v>
+        <v>ofNL_PA-onNL_W</v>
       </c>
       <c r="J734" t="s">
         <v>18</v>
@@ -33459,16 +33453,16 @@
         <f>_xlfn.XLOOKUP(J743,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B743" t="e">
+      <c r="B743">
         <f>_xlfn.XLOOKUP(K743,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C743">
         <v>112141.970857345</v>
       </c>
-      <c r="D743" t="e">
+      <c r="D743" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J743" t="s">
         <v>18</v>
@@ -33567,16 +33561,16 @@
         <f>_xlfn.XLOOKUP(J747,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_PA</v>
       </c>
-      <c r="B747" t="e">
+      <c r="B747">
         <f>_xlfn.XLOOKUP(K747,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C747">
         <v>55499.9787762825</v>
       </c>
-      <c r="D747" t="e">
+      <c r="D747" t="str">
         <f t="shared" si="22"/>
-        <v>#N/A</v>
+        <v>ofNL_PA-0</v>
       </c>
       <c r="J747" t="s">
         <v>18</v>
@@ -34190,14 +34184,14 @@
       </c>
       <c r="B768" t="str">
         <f>_xlfn.XLOOKUP(K768,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C768">
         <v>59062.457639507797</v>
       </c>
       <c r="D768" t="str">
         <f t="shared" si="22"/>
-        <v>ofNL_LU-onNL_SW</v>
+        <v>ofNL_LU-onNL_W</v>
       </c>
       <c r="J768" t="s">
         <v>19</v>
@@ -34512,16 +34506,16 @@
         <f>_xlfn.XLOOKUP(J779,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B779" t="e">
+      <c r="B779">
         <f>_xlfn.XLOOKUP(K779,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C779">
         <v>101960.04117606601</v>
       </c>
-      <c r="D779" t="e">
+      <c r="D779" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J779" t="s">
         <v>19</v>
@@ -34620,16 +34614,16 @@
         <f>_xlfn.XLOOKUP(J783,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_LU</v>
       </c>
-      <c r="B783" t="e">
+      <c r="B783">
         <f>_xlfn.XLOOKUP(K783,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C783">
         <v>205188.85733652601</v>
       </c>
-      <c r="D783" t="e">
+      <c r="D783" t="str">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
+        <v>ofNL_LU-0</v>
       </c>
       <c r="J783" t="s">
         <v>19</v>
@@ -35189,14 +35183,14 @@
       </c>
       <c r="B802" t="str">
         <f>_xlfn.XLOOKUP(K802,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C802">
         <v>241071.005421938</v>
       </c>
       <c r="D802" t="str">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-onNL_SW</v>
+        <v>ofNL_GE_B-onNL_W</v>
       </c>
       <c r="J802" t="s">
         <v>20</v>
@@ -36188,14 +36182,14 @@
       </c>
       <c r="B836" t="str">
         <f>_xlfn.XLOOKUP(K836,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C836">
         <v>245151.86942224801</v>
       </c>
       <c r="D836" t="str">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-onNL_SW</v>
+        <v>ofNL_GE_A-onNL_W</v>
       </c>
       <c r="J836" t="s">
         <v>21</v>
@@ -36510,16 +36504,16 @@
         <f>_xlfn.XLOOKUP(J847,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B847" t="e">
+      <c r="B847">
         <f>_xlfn.XLOOKUP(K847,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C847">
         <v>216563.075744929</v>
       </c>
-      <c r="D847" t="e">
+      <c r="D847" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J847" t="s">
         <v>21</v>
@@ -36591,16 +36585,16 @@
         <f>_xlfn.XLOOKUP(J850,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B850" t="e">
+      <c r="B850">
         <f>_xlfn.XLOOKUP(K850,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C850">
         <v>230177.59352938199</v>
       </c>
-      <c r="D850" t="e">
+      <c r="D850" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J850" t="s">
         <v>21</v>
@@ -36618,16 +36612,16 @@
         <f>_xlfn.XLOOKUP(J851,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_GE_A</v>
       </c>
-      <c r="B851" t="e">
+      <c r="B851">
         <f>_xlfn.XLOOKUP(K851,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C851">
         <v>26233.9999168141</v>
       </c>
-      <c r="D851" t="e">
+      <c r="D851" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_GE_A-0</v>
       </c>
       <c r="J851" t="s">
         <v>21</v>
@@ -37187,14 +37181,14 @@
       </c>
       <c r="B870" t="str">
         <f>_xlfn.XLOOKUP(K870,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C870">
         <v>85584.997692026605</v>
       </c>
       <c r="D870" t="str">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-onNL_SW</v>
+        <v>ofNL_KN-onNL_W</v>
       </c>
       <c r="J870" t="s">
         <v>24</v>
@@ -37455,16 +37449,16 @@
         <f>_xlfn.XLOOKUP(J879,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KN</v>
       </c>
-      <c r="B879" t="e">
+      <c r="B879">
         <f>_xlfn.XLOOKUP(K879,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C879">
         <v>102908.965064192</v>
       </c>
-      <c r="D879" t="e">
+      <c r="D879" t="str">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
+        <v>ofNL_KN-0</v>
       </c>
       <c r="J879" t="s">
         <v>24</v>
@@ -38186,14 +38180,14 @@
       </c>
       <c r="B904" t="str">
         <f>_xlfn.XLOOKUP(K904,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C904">
         <v>101471.540622548</v>
       </c>
       <c r="D904" t="str">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_A-onNL_SW</v>
+        <v>ofNL_KW_A-onNL_W</v>
       </c>
       <c r="J904" t="s">
         <v>25</v>
@@ -38481,16 +38475,16 @@
         <f>_xlfn.XLOOKUP(J914,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B914" t="e">
+      <c r="B914">
         <f>_xlfn.XLOOKUP(K914,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C914">
         <v>208271.10804091301</v>
       </c>
-      <c r="D914" t="e">
+      <c r="D914" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J914" t="s">
         <v>25</v>
@@ -38508,16 +38502,16 @@
         <f>_xlfn.XLOOKUP(J915,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B915" t="e">
+      <c r="B915">
         <f>_xlfn.XLOOKUP(K915,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C915">
         <v>59967.137730923103</v>
       </c>
-      <c r="D915" t="e">
+      <c r="D915" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J915" t="s">
         <v>25</v>
@@ -38589,16 +38583,16 @@
         <f>_xlfn.XLOOKUP(J918,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B918" t="e">
+      <c r="B918">
         <f>_xlfn.XLOOKUP(K918,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C918">
         <v>22317.787535432199</v>
       </c>
-      <c r="D918" t="e">
+      <c r="D918" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J918" t="s">
         <v>25</v>
@@ -38616,16 +38610,16 @@
         <f>_xlfn.XLOOKUP(J919,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_A</v>
       </c>
-      <c r="B919" t="e">
+      <c r="B919">
         <f>_xlfn.XLOOKUP(K919,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C919">
         <v>188771.502623098</v>
       </c>
-      <c r="D919" t="e">
+      <c r="D919" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_A-0</v>
       </c>
       <c r="J919" t="s">
         <v>25</v>
@@ -39185,14 +39179,14 @@
       </c>
       <c r="B938" t="str">
         <f>_xlfn.XLOOKUP(K938,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C938">
         <v>98835.658944315393</v>
       </c>
       <c r="D938" t="str">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-onNL_SW</v>
+        <v>ofNL_KW_B-onNL_W</v>
       </c>
       <c r="J938" t="s">
         <v>26</v>
@@ -39453,16 +39447,16 @@
         <f>_xlfn.XLOOKUP(J947,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B947" t="e">
+      <c r="B947">
         <f>_xlfn.XLOOKUP(K947,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C947">
         <v>91079.865656721697</v>
       </c>
-      <c r="D947" t="e">
+      <c r="D947" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J947" t="s">
         <v>26</v>
@@ -39534,16 +39528,16 @@
         <f>_xlfn.XLOOKUP(J950,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B950" t="e">
+      <c r="B950">
         <f>_xlfn.XLOOKUP(K950,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C950">
         <v>75641.988550162103</v>
       </c>
-      <c r="D950" t="e">
+      <c r="D950" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J950" t="s">
         <v>26</v>
@@ -39561,16 +39555,16 @@
         <f>_xlfn.XLOOKUP(J951,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>ofNL_KW_B</v>
       </c>
-      <c r="B951" t="e">
+      <c r="B951">
         <f>_xlfn.XLOOKUP(K951,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C951">
         <v>48575.670664600199</v>
       </c>
-      <c r="D951" t="e">
+      <c r="D951" t="str">
         <f t="shared" si="28"/>
-        <v>#N/A</v>
+        <v>ofNL_KW_B-0</v>
       </c>
       <c r="J951" t="s">
         <v>26</v>
@@ -40184,7 +40178,7 @@
       </c>
       <c r="B972" t="str">
         <f>_xlfn.XLOOKUP(K972,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C972">
         <v>185717.44992658001</v>
@@ -40482,9 +40476,9 @@
         <f>_xlfn.XLOOKUP(J982,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B982" t="e">
+      <c r="B982">
         <f>_xlfn.XLOOKUP(K982,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C982">
         <v>180507.208807733</v>
@@ -40509,9 +40503,9 @@
         <f>_xlfn.XLOOKUP(J983,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B983" t="e">
+      <c r="B983">
         <f>_xlfn.XLOOKUP(K983,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C983">
         <v>34818.212394749302</v>
@@ -40590,9 +40584,9 @@
         <f>_xlfn.XLOOKUP(J986,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B986" t="e">
+      <c r="B986">
         <f>_xlfn.XLOOKUP(K986,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C986">
         <v>98223.784172986198</v>
@@ -40617,9 +40611,9 @@
         <f>_xlfn.XLOOKUP(J987,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B987" t="e">
+      <c r="B987">
         <f>_xlfn.XLOOKUP(K987,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C987">
         <v>171671.47373767299</v>
@@ -41186,7 +41180,7 @@
       </c>
       <c r="B1006" t="str">
         <f>_xlfn.XLOOKUP(K1006,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1006">
         <v>260754.08906105699</v>
@@ -41565,9 +41559,9 @@
         <f>_xlfn.XLOOKUP(J1019,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1019" t="e">
+      <c r="B1019">
         <f>_xlfn.XLOOKUP(K1019,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1019">
         <v>173985.20458849001</v>
@@ -42188,7 +42182,7 @@
       </c>
       <c r="B1040" t="str">
         <f>_xlfn.XLOOKUP(K1040,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1040">
         <v>161006.521564044</v>
@@ -42486,9 +42480,9 @@
         <f>_xlfn.XLOOKUP(J1050,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1050" t="e">
+      <c r="B1050">
         <f>_xlfn.XLOOKUP(K1050,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1050">
         <v>34818.212394748902</v>
@@ -42513,9 +42507,9 @@
         <f>_xlfn.XLOOKUP(J1051,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1051" t="e">
+      <c r="B1051">
         <f>_xlfn.XLOOKUP(K1051,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1051">
         <v>205305.58672767601</v>
@@ -42594,9 +42588,9 @@
         <f>_xlfn.XLOOKUP(J1054,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1054" t="e">
+      <c r="B1054">
         <f>_xlfn.XLOOKUP(K1054,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1054">
         <v>67797.181359645096</v>
@@ -42621,9 +42615,9 @@
         <f>_xlfn.XLOOKUP(J1055,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1055" t="e">
+      <c r="B1055">
         <f>_xlfn.XLOOKUP(K1055,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1055">
         <v>192813.694724364</v>
@@ -43190,7 +43184,7 @@
       </c>
       <c r="B1074" t="str">
         <f>_xlfn.XLOOKUP(K1074,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1074">
         <v>153196.85969856899</v>
@@ -43569,9 +43563,9 @@
         <f>_xlfn.XLOOKUP(J1087,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1087" t="e">
+      <c r="B1087">
         <f>_xlfn.XLOOKUP(K1087,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1087">
         <v>27303.143066912999</v>
@@ -44192,7 +44186,7 @@
       </c>
       <c r="B1108" t="str">
         <f>_xlfn.XLOOKUP(K1108,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1108">
         <v>129470.70179263101</v>
@@ -44490,9 +44484,9 @@
         <f>_xlfn.XLOOKUP(J1118,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1118" t="e">
+      <c r="B1118">
         <f>_xlfn.XLOOKUP(K1118,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1118">
         <v>59887.816452013598</v>
@@ -44517,9 +44511,9 @@
         <f>_xlfn.XLOOKUP(J1119,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1119" t="e">
+      <c r="B1119">
         <f>_xlfn.XLOOKUP(K1119,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1119">
         <v>173985.20458849001</v>
@@ -44598,9 +44592,9 @@
         <f>_xlfn.XLOOKUP(J1122,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1122" t="e">
+      <c r="B1122">
         <f>_xlfn.XLOOKUP(K1122,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1122">
         <v>58808.814216680497</v>
@@ -44625,9 +44619,9 @@
         <f>_xlfn.XLOOKUP(J1123,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1123" t="e">
+      <c r="B1123">
         <f>_xlfn.XLOOKUP(K1123,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1123">
         <v>156529.11196884699</v>
@@ -45194,7 +45188,7 @@
       </c>
       <c r="B1142" t="str">
         <f>_xlfn.XLOOKUP(K1142,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1142">
         <v>96348.178368929497</v>
@@ -46196,7 +46190,7 @@
       </c>
       <c r="B1176" t="str">
         <f>_xlfn.XLOOKUP(K1176,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1176">
         <v>234773.42443201199</v>
@@ -46494,9 +46488,9 @@
         <f>_xlfn.XLOOKUP(J1186,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1186" t="e">
+      <c r="B1186">
         <f>_xlfn.XLOOKUP(K1186,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1186">
         <v>171671.47373767401</v>
@@ -46521,9 +46515,9 @@
         <f>_xlfn.XLOOKUP(J1187,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1187" t="e">
+      <c r="B1187">
         <f>_xlfn.XLOOKUP(K1187,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1187">
         <v>28292.5334974658</v>
@@ -46602,9 +46596,9 @@
         <f>_xlfn.XLOOKUP(J1190,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1190" t="e">
+      <c r="B1190">
         <f>_xlfn.XLOOKUP(K1190,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1190">
         <v>156529.11196884699</v>
@@ -46629,9 +46623,9 @@
         <f>_xlfn.XLOOKUP(J1191,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="B1191" t="e">
+      <c r="B1191">
         <f>_xlfn.XLOOKUP(K1191,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C1191">
         <v>210993.494479969</v>
